--- a/Test_Project/target/test-classes/Data_DemoQA.xlsx
+++ b/Test_Project/target/test-classes/Data_DemoQA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Textbox" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t xml:space="preserve">Label</t>
   </si>
@@ -42,7 +42,7 @@
     <t xml:space="preserve">pallavi.patil@joshsoftware.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Current adreess</t>
+    <t xml:space="preserve">Current address</t>
   </si>
   <si>
     <t xml:space="preserve">Pune</t>
@@ -79,18 +79,6 @@
   </si>
   <si>
     <t xml:space="preserve">Mobile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">English</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Current address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Balewadi Pune</t>
   </si>
 </sst>
 </file>
@@ -215,11 +203,11 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.92"/>
@@ -290,7 +278,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.93"/>
   </cols>
@@ -370,15 +358,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.01"/>
   </cols>
   <sheetData>
@@ -424,18 +412,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
